--- a/data/financial_statements/soci/DVA.xlsx
+++ b/data/financial_statements/soci/DVA.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2949000000</v>
+        <v>2948694000</v>
       </c>
       <c r="C2">
-        <v>2927000000</v>
+        <v>2926757000</v>
       </c>
       <c r="D2">
-        <v>2818000000</v>
+        <v>2817555000</v>
       </c>
       <c r="E2">
-        <v>2944000000</v>
+        <v>2943967000</v>
       </c>
       <c r="F2">
-        <v>2938000000</v>
+        <v>2938319000</v>
       </c>
       <c r="G2">
         <v>2916510000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.0037</v>
+        <v>0.0035</v>
       </c>
       <c r="C3">
-        <v>0.0036</v>
+        <v>0.0035</v>
       </c>
       <c r="D3">
-        <v>-0.0007</v>
+        <v>-0.0009</v>
       </c>
       <c r="E3">
         <v>0.0133</v>
       </c>
       <c r="F3">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="G3">
         <v>0.0127</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2280000000</v>
+        <v>2085555000</v>
       </c>
       <c r="C4">
-        <v>2188000000</v>
+        <v>2016788000</v>
       </c>
       <c r="D4">
-        <v>2191000000</v>
+        <v>2018529000</v>
       </c>
       <c r="E4">
-        <v>2235000000</v>
+        <v>2060218000</v>
       </c>
       <c r="F4">
-        <v>2179000000</v>
+        <v>2008589000</v>
       </c>
       <c r="G4">
         <v>1965277000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>669000000</v>
+        <v>863139200</v>
       </c>
       <c r="C5">
-        <v>739000000</v>
+        <v>909969100</v>
       </c>
       <c r="D5">
-        <v>626000000</v>
+        <v>799025900</v>
       </c>
       <c r="E5">
-        <v>709000000</v>
+        <v>883748500</v>
       </c>
       <c r="F5">
-        <v>759000000</v>
+        <v>929730100</v>
       </c>
       <c r="G5">
         <v>951233000</v>
@@ -1105,8 +1216,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>365447000</v>
@@ -1121,7 +1232,7 @@
         <v>322723000</v>
       </c>
       <c r="F6">
-        <v>293000000</v>
+        <v>293095000</v>
       </c>
       <c r="G6">
         <v>298091000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>311787100</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>98000000</v>
@@ -1390,23 +1501,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>-6000000</v>
+        <v>-104578000</v>
       </c>
       <c r="C9">
-        <v>-3000000</v>
+        <v>-83870000</v>
       </c>
       <c r="D9">
-        <v>-3000000</v>
+        <v>-75577000</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-74475000</v>
       </c>
       <c r="F9">
-        <v>-9000000</v>
+        <v>-80419000</v>
       </c>
       <c r="G9">
         <v>-58136000</v>
@@ -1512,23 +1623,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>207000000</v>
+        <v>207209000</v>
       </c>
       <c r="C10">
-        <v>349000000</v>
+        <v>348845000</v>
       </c>
       <c r="D10">
-        <v>263000000</v>
+        <v>262731000</v>
       </c>
       <c r="E10">
-        <v>315000000</v>
+        <v>314940000</v>
       </c>
       <c r="F10">
-        <v>394000000</v>
+        <v>394458000</v>
       </c>
       <c r="G10">
         <v>432340000</v>
@@ -1634,23 +1745,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>43000000</v>
+        <v>42515000</v>
       </c>
       <c r="C11">
-        <v>64000000</v>
+        <v>64229000</v>
       </c>
       <c r="D11">
-        <v>57000000</v>
+        <v>57013000</v>
       </c>
       <c r="E11">
-        <v>66000000</v>
+        <v>65508000</v>
       </c>
       <c r="F11">
-        <v>75000000</v>
+        <v>74704000</v>
       </c>
       <c r="G11">
         <v>81309000</v>
@@ -1756,8 +1867,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>164694000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1931,8 +2042,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>59328000</v>
@@ -2053,23 +2164,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>105000000</v>
+        <v>105366000</v>
       </c>
       <c r="C15">
-        <v>225000000</v>
+        <v>224809000</v>
       </c>
       <c r="D15">
-        <v>162000000</v>
+        <v>162122000</v>
       </c>
       <c r="E15">
-        <v>187000000</v>
+        <v>187473000</v>
       </c>
       <c r="F15">
-        <v>260000000</v>
+        <v>259754000</v>
       </c>
       <c r="G15">
         <v>293820000</v>
@@ -2175,23 +2286,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="C16">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="D16">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="E16">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="F16">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="G16">
         <v>2.76</v>
@@ -2297,8 +2408,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1.13</v>
@@ -2419,23 +2530,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>91000000</v>
+        <v>91160000</v>
       </c>
       <c r="C18">
-        <v>94000000</v>
+        <v>94457000</v>
       </c>
       <c r="D18">
-        <v>96000000</v>
+        <v>96342000</v>
       </c>
       <c r="E18">
-        <v>101000000</v>
+        <v>105230000</v>
       </c>
       <c r="F18">
-        <v>105000000</v>
+        <v>104793000</v>
       </c>
       <c r="G18">
         <v>106364000</v>
@@ -2541,23 +2652,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>93000000</v>
+        <v>93263000</v>
       </c>
       <c r="C19">
-        <v>98000000</v>
+        <v>97772000</v>
       </c>
       <c r="D19">
-        <v>101000000</v>
+        <v>100503000</v>
       </c>
       <c r="E19">
-        <v>105000000</v>
+        <v>109948000</v>
       </c>
       <c r="F19">
-        <v>110000000</v>
+        <v>109838000</v>
       </c>
       <c r="G19">
         <v>111423000</v>
@@ -2663,23 +2774,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.2269</v>
+        <v>0.2927</v>
       </c>
       <c r="C20">
-        <v>0.2525</v>
+        <v>0.3109</v>
       </c>
       <c r="D20">
-        <v>0.2221</v>
+        <v>0.2836</v>
       </c>
       <c r="E20">
-        <v>0.2408</v>
+        <v>0.3002</v>
       </c>
       <c r="F20">
-        <v>0.2583</v>
+        <v>0.3164</v>
       </c>
       <c r="G20">
         <v>0.3262</v>
@@ -2785,8 +2896,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.1057</v>
@@ -2907,23 +3018,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.0702</v>
+        <v>0.0703</v>
       </c>
       <c r="C22">
         <v>0.1192</v>
       </c>
       <c r="D22">
-        <v>0.09329999999999999</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="E22">
         <v>0.107</v>
       </c>
       <c r="F22">
-        <v>0.1341</v>
+        <v>0.1342</v>
       </c>
       <c r="G22">
         <v>0.1482</v>
@@ -3029,23 +3140,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0356</v>
+        <v>0.0357</v>
       </c>
       <c r="C23">
-        <v>0.0769</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="D23">
         <v>0.0575</v>
       </c>
       <c r="E23">
-        <v>0.0635</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="F23">
-        <v>0.0885</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="G23">
         <v>0.1007</v>
@@ -3151,23 +3262,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>498000000</v>
+        <v>506201100</v>
       </c>
       <c r="C24">
-        <v>595000000</v>
+        <v>603891400</v>
       </c>
       <c r="D24">
-        <v>504000000</v>
+        <v>511251600</v>
       </c>
       <c r="E24">
-        <v>561000000</v>
+        <v>564177100</v>
       </c>
       <c r="F24">
-        <v>637000000</v>
+        <v>645339200</v>
       </c>
       <c r="G24">
         <v>660164900</v>
@@ -3273,8 +3384,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>311787100</v>
@@ -3395,8 +3506,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>164694000</v>
@@ -3517,8 +3628,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="I27">
         <v>-19633000</v>
@@ -3567,23 +3678,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>165000000</v>
+        <v>164694000</v>
       </c>
       <c r="C28">
-        <v>285000000</v>
+        <v>284616000</v>
       </c>
       <c r="D28">
-        <v>206000000</v>
+        <v>205718000</v>
       </c>
       <c r="E28">
-        <v>249000000</v>
+        <v>249431900</v>
       </c>
       <c r="F28">
-        <v>320000000</v>
+        <v>319754000</v>
       </c>
       <c r="G28">
         <v>351031000</v>
@@ -3689,8 +3800,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.8066</v>
@@ -3811,8 +3922,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.7659</v>
@@ -3933,8 +4044,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="I31">
         <v>-0.1586</v>
@@ -3986,8 +4097,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I32">
         <v>-0.1599</v>
@@ -4039,8 +4150,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1.8066</v>
@@ -4161,8 +4272,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1.7659</v>
@@ -4283,8 +4394,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>93263000</v>
@@ -4405,23 +4516,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.1689</v>
+        <v>0.1717</v>
       </c>
       <c r="C36">
-        <v>0.2033</v>
+        <v>0.2063</v>
       </c>
       <c r="D36">
-        <v>0.1789</v>
+        <v>0.1815</v>
       </c>
       <c r="E36">
-        <v>0.1906</v>
+        <v>0.1916</v>
       </c>
       <c r="F36">
-        <v>0.2168</v>
+        <v>0.2196</v>
       </c>
       <c r="G36">
         <v>0.2264</v>
@@ -4527,17 +4638,17 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.2409</v>
+        <v>0.241</v>
       </c>
       <c r="C37">
         <v>0.0643</v>
       </c>
       <c r="D37">
-        <v>0.1143</v>
+        <v>0.1144</v>
       </c>
       <c r="E37">
         <v>0.18</v>
